--- a/Recursos/Canales de entrada.xlsx
+++ b/Recursos/Canales de entrada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlando/Documents/GitHub/TFM-EasyMoney/Recursos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f434dff2bfe4286/Desktop/DataScience/TFM_/TFM-EasyMoney/Recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB9010F-1B7D-C541-86C1-0185EC725751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{5AF53172-084B-7E4B-81E6-74F7F352F8A9}"/>
+    <workbookView xWindow="23880" yWindow="-7695" windowWidth="29040" windowHeight="15840" xr2:uid="{5AF53172-084B-7E4B-81E6-74F7F352F8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Canales de entrada" sheetId="1" r:id="rId1"/>
@@ -579,18 +579,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="75.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="75.33203125" style="1"/>
+    <col min="4" max="16384" width="75.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -632,7 +632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -660,7 +660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -674,7 +674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -716,7 +716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -730,7 +730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
